--- a/srcript/reg_tab/Tables/EP.xlsx
+++ b/srcript/reg_tab/Tables/EP.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="761" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="EP_FLOW_KEY_t" sheetId="8" r:id="rId1"/>
-    <sheet name="EP_FLOW_DATA_GOOSE_t" sheetId="5" r:id="rId2"/>
-    <sheet name="EP_FLOW_DATA_SV_t" sheetId="6" r:id="rId3"/>
-    <sheet name="EP_EGRESS_FLOW_CNT_t" sheetId="7" r:id="rId4"/>
-    <sheet name="EP_EGRESS_FLOW_CNT_DATA_t" sheetId="4" r:id="rId5"/>
+    <sheet name="EP_FLOW_t" sheetId="5" r:id="rId1"/>
+    <sheet name="PT_SV_GOOSE_FLOW_LINEAR_t" sheetId="8" r:id="rId2"/>
+    <sheet name="EP_EGRESS_FLOW_CNT_t" sheetId="7" r:id="rId3"/>
+    <sheet name="EP_GOOSE_ENCODE_t" sheetId="9" r:id="rId4"/>
+    <sheet name="EP_SV_ENCODE_t" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
   <si>
     <t>TABLE_BITS_WIDTH</t>
   </si>
@@ -51,9 +51,6 @@
   <si>
     <t>DESCRIPTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EP_FLOW_KEY_t</t>
   </si>
   <si>
     <t>NET_ID</t>
@@ -126,145 +123,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>85:84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34:19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>363:332</t>
-  </si>
-  <si>
-    <t>331:300</t>
-  </si>
-  <si>
-    <t>299:268</t>
-  </si>
-  <si>
-    <t>235:204</t>
-  </si>
-  <si>
     <t>STATE</t>
   </si>
   <si>
-    <t>163:148</t>
-  </si>
-  <si>
     <t>DMAC</t>
   </si>
   <si>
-    <t>147:100</t>
-  </si>
-  <si>
     <t>PLEN</t>
   </si>
   <si>
-    <t>99:84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CREATE_TIME</t>
   </si>
   <si>
-    <t>83:52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME_TIME</t>
   </si>
   <si>
-    <t>51:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VLAN_ID</t>
   </si>
   <si>
-    <t>19:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PORT_NUM</t>
-  </si>
-  <si>
-    <t>7:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cbRef字段crc值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allDat字段crc值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dsRef字段crc值</t>
-  </si>
-  <si>
-    <t>267:236</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203:172</t>
-  </si>
-  <si>
-    <t>251:236</t>
-  </si>
-  <si>
-    <t>TOKEN_UPDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>171:164</t>
-  </si>
-  <si>
-    <t>sqNum</t>
-  </si>
-  <si>
-    <t>stNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goID字段crc值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dsRef字段crc值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smpCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>svID字段crc值</t>
   </si>
   <si>
     <t>产生update消息的剩余token</t>
@@ -300,54 +177,10 @@
     <t>source port number</t>
   </si>
   <si>
-    <t>EP_FLOW_DATA_GOOSE_t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQ_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO_ID_CRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CB_REF_CRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL_DAT_CRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DS_REF_CRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HASH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SMP_CNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SV_ID_CRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EP_FLOW_DATA_SV_t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vlan id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L2_OR_L3_PKT</t>
   </si>
   <si>
@@ -375,10 +208,6 @@
     <t>dest port number</t>
   </si>
   <si>
-    <t>EP_EGRESS_FLOW_CNT_DATA_t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BYTE_CNT</t>
   </si>
   <si>
@@ -389,9 +218,6 @@
   </si>
   <si>
     <t>报文总字节数统计</t>
-  </si>
-  <si>
-    <t>EP_EGRESS_FLOW_CNT_t</t>
   </si>
   <si>
     <t>100:99</t>
@@ -432,19 +258,307 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>71:32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>MONO_TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调时戳的高16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSR_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> used for packet replication among devices . This table is indexed 
+by L2MC_INDEX、L3MC_INDEX or UUC_IDX、UMC_IDX、BC_IDX of vlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD_BITS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB_FIELD_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB_FIELD_BITS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP_FLOW_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85:84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> used for packet replication among devices . This table is indexed 
+by L2MC_INDEX、L3MC_INDEX or UUC_IDX、UMC_IDX、BC_IDX of vlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB_FIELD_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB_FIELD_BITS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_SV_GOOSE_FLOW_LINEAR_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>187:172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN_UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>171:164</t>
+  </si>
+  <si>
+    <t>163:148</t>
+  </si>
+  <si>
+    <t>147:100</t>
+  </si>
+  <si>
+    <t>99:84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlan id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>132:101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172:133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP_EGRESS_FLOW_CNT_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP_GOOSE_ENCODE_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserved</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>minTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>src_port_cfg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>appid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prp_en</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lan_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>69:64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>63:50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>49:30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>29:23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小发送间隔(配置粒度256ns，最大可配置时间为16ms)，影响T1~T4,该值建议配置成大于512（所有通道巡检一次的时间，减少时间误差)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大发送间隔(配置粒度256ns，最大可配置时间为64ms)，影响T5,该值建议配置成大于512（所有通道巡检一次的时间，减少时间误差）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+  </si>
+  <si>
+    <t>软件写1，硬件处理完后自清0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：有效；0：无效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP_SV_ENCODE_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +596,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -564,7 +685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -613,9 +734,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,9 +743,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -641,6 +756,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,11 +767,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -695,7 +821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,9 +853,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -761,6 +888,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -936,14 +1064,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="14" customWidth="1"/>
@@ -956,9 +1084,9 @@
     <col min="9" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -973,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -982,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="66">
+    <row r="2" spans="1:8" ht="66" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>4096</v>
       </c>
@@ -990,159 +1118,159 @@
         <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="11">
         <v>0</v>
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="17"/>
       <c r="B6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="11">
         <v>0</v>
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="33">
-      <c r="A8" s="18"/>
+    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="A8" s="17"/>
       <c r="B8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="11">
         <v>0</v>
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="10" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="G9" s="11">
         <v>0</v>
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="18"/>
       <c r="B10" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1167,14 +1295,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="14" customWidth="1"/>
@@ -1187,9 +1315,9 @@
     <col min="9" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1204,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1213,12 +1341,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="66">
+    <row r="2" spans="1:8" ht="66" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>4096</v>
       </c>
       <c r="B2" s="2">
-        <v>364</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -1228,276 +1356,190 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="20" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="21"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
       <c r="B5" s="13" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="21"/>
+    <row r="6" spans="1:8" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="19"/>
       <c r="B6" s="13" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
-        <v>67</v>
+      <c r="F6" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="21"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="19"/>
       <c r="B7" s="13" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="21"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="19"/>
       <c r="B8" s="13" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="21"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
       <c r="B9" s="13" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
-        <v>68</v>
+      <c r="F9" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="21"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="19"/>
       <c r="B10" s="13" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="10" t="s">
-        <v>71</v>
+      <c r="F10" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="214.5">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
       <c r="B11" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
+      <c r="F11" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="21"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
       <c r="B12" s="13" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
+      <c r="F12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="21"/>
-      <c r="B13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="21"/>
-      <c r="B14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="21"/>
-      <c r="B15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="21"/>
-      <c r="B16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="22"/>
-      <c r="B17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A4:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -1510,16 +1552,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="32.625" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="14" customWidth="1"/>
     <col min="3" max="3" width="16" style="14" customWidth="1"/>
     <col min="4" max="4" width="23.75" style="14" customWidth="1"/>
@@ -1530,9 +1572,9 @@
     <col min="9" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1547,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1556,36 +1598,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="66">
+    <row r="2" spans="1:8" ht="66" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>4096</v>
       </c>
       <c r="B2" s="2">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
@@ -1594,201 +1636,225 @@
         <v>9</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>62</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="10" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G4" s="11">
         <v>0</v>
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="21"/>
-      <c r="B5" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>42</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="21"/>
-      <c r="B6" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>61</v>
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="11"/>
+      <c r="F6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="21"/>
-      <c r="B7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>64</v>
+    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
+      <c r="B7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="10">
+        <v>98</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="11"/>
+      <c r="F7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="214.5">
-      <c r="A8" s="21"/>
-      <c r="B8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>44</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10">
+        <v>97</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="15" t="s">
-        <v>72</v>
+      <c r="F8" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="G8" s="11">
         <v>0</v>
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="21"/>
-      <c r="B9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
-        <v>73</v>
+      <c r="F9" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="G9" s="11">
         <v>0</v>
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="21"/>
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
+      <c r="C10" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="10" t="s">
-        <v>74</v>
+      <c r="F10" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="G10" s="11">
         <v>0</v>
       </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="21"/>
-      <c r="B11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>50</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="21"/>
-      <c r="B12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>52</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="21"/>
-      <c r="B13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>54</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
-      <c r="B14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>56</v>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="23"/>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A4:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -1801,16 +1867,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="32.625" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="14" customWidth="1"/>
     <col min="3" max="3" width="16" style="14" customWidth="1"/>
     <col min="4" max="4" width="23.75" style="14" customWidth="1"/>
@@ -1821,9 +1887,9 @@
     <col min="9" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1838,7 +1904,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1847,36 +1913,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="66">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>4096</v>
+        <v>512</v>
       </c>
       <c r="B2" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
@@ -1885,189 +1949,173 @@
         <v>9</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33">
-      <c r="A4" s="23" t="s">
-        <v>104</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>105</v>
+        <v>115</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="9" t="s">
-        <v>106</v>
+      <c r="F4" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="G4" s="11">
         <v>0</v>
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="33">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="24"/>
       <c r="B5" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="10">
-        <v>98</v>
+        <v>116</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="9" t="s">
-        <v>107</v>
+      <c r="F5" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="24"/>
       <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>91</v>
+        <v>118</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="G7" s="11">
         <v>0</v>
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="24"/>
       <c r="B8" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>108</v>
+        <v>119</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="G8" s="11">
         <v>0</v>
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="24"/>
       <c r="B9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>109</v>
+        <v>120</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="G9" s="11">
         <v>0</v>
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>110</v>
+        <v>121</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>77</v>
-      </c>
+      <c r="F10" s="11"/>
       <c r="G10" s="11">
         <v>0</v>
       </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>111</v>
+        <v>122</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="24"/>
       <c r="B12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>112</v>
+        <v>123</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
       <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="25"/>
-      <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A4:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2080,16 +2128,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="32.625" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="14" customWidth="1"/>
     <col min="3" max="3" width="16" style="14" customWidth="1"/>
     <col min="4" max="4" width="23.75" style="14" customWidth="1"/>
@@ -2100,9 +2148,9 @@
     <col min="9" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2117,7 +2165,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -2126,36 +2174,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="66">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>4096</v>
+        <v>512</v>
       </c>
       <c r="B2" s="2">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
@@ -2164,53 +2210,119 @@
         <v>9</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>114</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="10" t="s">
-        <v>103</v>
+      <c r="F4" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="G4" s="11">
         <v>0</v>
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="16"/>
-      <c r="B5" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>115</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="24"/>
+      <c r="B5" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
-        <v>102</v>
+      <c r="F5" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
       </c>
       <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="24"/>
+      <c r="B6" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="24"/>
+      <c r="B7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="24"/>
+      <c r="B8" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="24"/>
+      <c r="B9" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
